--- a/folders_list.xlsx
+++ b/folders_list.xlsx
@@ -12,18 +12,213 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
   <si>
     <t>NomeCartella</t>
   </si>
   <si>
-    <t>images templates (png, jpg, webp)</t>
-  </si>
-  <si>
-    <t>plants xml templates</t>
-  </si>
-  <si>
-    <t>single xml templates</t>
+    <t>Abels fruchte</t>
+  </si>
+  <si>
+    <t>Arco</t>
+  </si>
+  <si>
+    <t>BBM</t>
+  </si>
+  <si>
+    <t>Bertan</t>
+  </si>
+  <si>
+    <t>Biasi</t>
+  </si>
+  <si>
+    <t>Bio Hotel Panorama</t>
+  </si>
+  <si>
+    <t>Blutec</t>
+  </si>
+  <si>
+    <t>Bosch Rexroth</t>
+  </si>
+  <si>
+    <t>Brauerei Härle</t>
+  </si>
+  <si>
+    <t>Broscheit</t>
+  </si>
+  <si>
+    <t>Bruening</t>
+  </si>
+  <si>
+    <t>Burkert</t>
+  </si>
+  <si>
+    <t>Cabel anterselva</t>
+  </si>
+  <si>
+    <t>Campoleva</t>
+  </si>
+  <si>
+    <t>Carmenta</t>
+  </si>
+  <si>
+    <t>Cartiere Burgo Treviso</t>
+  </si>
+  <si>
+    <t>Celenit</t>
+  </si>
+  <si>
+    <t>Donelli Alexo</t>
+  </si>
+  <si>
+    <t>Donelli Cuggiono Sede</t>
+  </si>
+  <si>
+    <t>Dreher Bio</t>
+  </si>
+  <si>
+    <t>Ebert</t>
+  </si>
+  <si>
+    <t>Ecocenter</t>
+  </si>
+  <si>
+    <t>Enayati</t>
+  </si>
+  <si>
+    <t>ETRA</t>
+  </si>
+  <si>
+    <t>Fanin</t>
+  </si>
+  <si>
+    <t>FARO</t>
+  </si>
+  <si>
+    <t>Felgentreu</t>
+  </si>
+  <si>
+    <t>FOP Canali</t>
+  </si>
+  <si>
+    <t>Foralosso</t>
+  </si>
+  <si>
+    <t>Gemmo Livio</t>
+  </si>
+  <si>
+    <t>Gemueserign Stuttgart</t>
+  </si>
+  <si>
+    <t>Gemuesering_old-da verificare</t>
+  </si>
+  <si>
+    <t>Gemüsering-Dreesen</t>
+  </si>
+  <si>
+    <t>Geoside Italgas</t>
+  </si>
+  <si>
+    <t>Greenpower - Euromilk</t>
+  </si>
+  <si>
+    <t>Home perspective Leonardi</t>
+  </si>
+  <si>
+    <t>Hotel Hubertus</t>
+  </si>
+  <si>
+    <t>Hotel Palace Merano</t>
+  </si>
+  <si>
+    <t>Il Vecchio Forno</t>
+  </si>
+  <si>
+    <t>IMAR</t>
+  </si>
+  <si>
+    <t>Inewa</t>
+  </si>
+  <si>
+    <t>integrazione i-frame italgas</t>
+  </si>
+  <si>
+    <t>Kaercher</t>
+  </si>
+  <si>
+    <t>Kustengemuse</t>
+  </si>
+  <si>
+    <t>Labrenta</t>
+  </si>
+  <si>
+    <t>Lico Santo (TIM)</t>
+  </si>
+  <si>
+    <t>Maerklin</t>
+  </si>
+  <si>
+    <t>MEP</t>
+  </si>
+  <si>
+    <t>Migrazione Ignition Perspective</t>
+  </si>
+  <si>
+    <t>Millennium Engineering</t>
+  </si>
+  <si>
+    <t>Oy-Mittelberg</t>
+  </si>
+  <si>
+    <t>Produktion Ost - Felgentreu</t>
+  </si>
+  <si>
+    <t>Produktion Ost - Meinsdorf</t>
+  </si>
+  <si>
+    <t>Produktion Ost - Schkolen</t>
+  </si>
+  <si>
+    <t>Produktion Ost - Thuringen</t>
+  </si>
+  <si>
+    <t>Produktion Ost - Zorbau</t>
+  </si>
+  <si>
+    <t>Rebhorn</t>
+  </si>
+  <si>
+    <t>Rheinland Gemuese</t>
+  </si>
+  <si>
+    <t>Rhoen</t>
+  </si>
+  <si>
+    <t>Rhoss</t>
+  </si>
+  <si>
+    <t>Rotogal</t>
+  </si>
+  <si>
+    <t>Saci</t>
+  </si>
+  <si>
+    <t>Saci (PM3)</t>
+  </si>
+  <si>
+    <t>Santre</t>
+  </si>
+  <si>
+    <t>Silgan dispensing</t>
+  </si>
+  <si>
+    <t>Template_Customer</t>
+  </si>
+  <si>
+    <t>TMS (tram)</t>
+  </si>
+  <si>
+    <t>Tondisolanti</t>
   </si>
 </sst>
 </file>
@@ -68,7 +263,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="FoldersList" displayName="FoldersList" ref="A1:A4" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="FoldersList" displayName="FoldersList" ref="A1:A69" headerRowCount="1">
   <autoFilter ref="A1:A4"/>
   <tableColumns count="1">
     <tableColumn id="1" name="NomeCartella"/>
@@ -79,13 +274,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:A69"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="31.595170974731445" customWidth="1"/>
+    <col min="1" max="1" width="29.074338912963867" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -106,6 +301,331 @@
     <row r="4">
       <c r="A4" s="0" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="0" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="0" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="0" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="0" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="0" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="0" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="0" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="0" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="0" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="0" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="0" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="0" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="0" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="0" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="0" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="0" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="0" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="0" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="0" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="0" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="0" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="0" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="0" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="0" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="0" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="0" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="0" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="0" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="0" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="0" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="0" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="0" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
